--- a/dags/functions/DAG017/assets/RerporteVerificacionCliente.xlsx
+++ b/dags/functions/DAG017/assets/RerporteVerificacionCliente.xlsx
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="C5" s="10" t="n">
-        <v>45428.5845156906</v>
+        <v>45428.70323690261</v>
       </c>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
